--- a/exel/BD_MUZEY.xlsx
+++ b/exel/BD_MUZEY.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="119">
   <si>
     <t>Attribute</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Наименование должности</t>
   </si>
   <si>
-    <t>ID_Контактные данные</t>
-  </si>
-  <si>
     <t>Номер телефона</t>
   </si>
   <si>
@@ -375,6 +372,15 @@
   </si>
   <si>
     <t>30 табл</t>
+  </si>
+  <si>
+    <t>ID_Стоимость</t>
+  </si>
+  <si>
+    <t>ID_Контактные данные П</t>
+  </si>
+  <si>
+    <t>ID_Контактные данные С</t>
   </si>
 </sst>
 </file>
@@ -784,6 +790,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,16 +809,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5465,7 +5471,7 @@
   <dimension ref="B1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5496,31 +5502,31 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
-        <v>116</v>
+      <c r="B2" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="G3" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="K3" s="18" t="s">
+      <c r="C3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="K3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="O3" s="21" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="O3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -5565,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -5574,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>4</v>
@@ -5592,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>4</v>
@@ -5601,7 +5607,7 @@
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>5</v>
@@ -5610,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>4</v>
@@ -5619,7 +5625,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>4</v>
@@ -5637,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>4</v>
@@ -5660,16 +5666,16 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>4</v>
@@ -5678,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>4</v>
@@ -5705,7 +5711,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>4</v>
@@ -5714,7 +5720,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>4</v>
@@ -5732,14 +5738,14 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>12</v>
@@ -5748,7 +5754,7 @@
         <v>7</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>4</v>
@@ -5757,7 +5763,7 @@
     <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>5</v>
@@ -5773,21 +5779,21 @@
         <v>7</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>11</v>
@@ -5801,7 +5807,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>6</v>
@@ -5819,7 +5825,7 @@
     <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
@@ -5837,21 +5843,21 @@
     <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="K14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
+      <c r="G14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="K14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8" t="s">
         <v>22</v>
@@ -5881,16 +5887,16 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="G16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>4</v>
@@ -5899,16 +5905,16 @@
         <v>3</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
+      <c r="O16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
@@ -5924,17 +5930,17 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>2</v>
@@ -5951,30 +5957,30 @@
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>4</v>
@@ -5983,37 +5989,37 @@
     <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>6</v>
@@ -6022,21 +6028,21 @@
     <row r="21" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
+      <c r="G21" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="K21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
       <c r="O21" s="4"/>
       <c r="P21" s="5" t="s">
         <v>8</v>
@@ -6066,23 +6072,23 @@
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="G23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>4</v>
@@ -6091,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>4</v>
@@ -6111,30 +6117,30 @@
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
+      <c r="O24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>4</v>
@@ -6143,14 +6149,14 @@
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>6</v>
@@ -6168,7 +6174,7 @@
     <row r="26" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>4</v>
@@ -6177,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>4</v>
@@ -6186,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>4</v>
@@ -6195,7 +6201,7 @@
     <row r="27" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
@@ -6209,14 +6215,14 @@
       <c r="I27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
+      <c r="K27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
       <c r="O27" s="4"/>
       <c r="P27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>6</v>
@@ -6232,7 +6238,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>6</v>
@@ -6248,10 +6254,10 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6259,46 +6265,46 @@
         <v>3</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G30" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
+      <c r="G30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
       <c r="K30" s="4"/>
       <c r="L30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="C31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="G31" s="1" t="s">
         <v>2</v>
       </c>
@@ -6310,14 +6316,14 @@
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -6337,14 +6343,14 @@
         <v>3</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -6355,7 +6361,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>4</v>
@@ -6364,19 +6370,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
+      <c r="K33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
       <c r="O33" s="7"/>
       <c r="P33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>9</v>
@@ -6385,7 +6391,7 @@
     <row r="34" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>6</v>
@@ -6394,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>4</v>
@@ -6414,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>4</v>
@@ -6423,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>4</v>
@@ -6432,23 +6438,23 @@
     <row r="36" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O36" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23"/>
+      <c r="O36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
       <c r="O37" s="12" t="s">
@@ -6466,33 +6472,33 @@
         <v>3</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="K39" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
+      <c r="C39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="G39" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
+      <c r="K39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
       <c r="O39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>4</v>
@@ -6530,7 +6536,7 @@
         <v>7</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>4</v>
@@ -6541,7 +6547,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>4</v>
@@ -6550,7 +6556,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>4</v>
@@ -6559,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>4</v>
@@ -6568,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>4</v>
@@ -6577,7 +6583,7 @@
     <row r="42" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
@@ -6586,7 +6592,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>4</v>
@@ -6602,7 +6608,7 @@
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>5</v>
@@ -6611,7 +6617,7 @@
     <row r="43" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>6</v>
@@ -6620,7 +6626,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>4</v>
@@ -6629,23 +6635,23 @@
         <v>7</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="7"/>
       <c r="D44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>6</v>
@@ -6654,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>4</v>
@@ -6663,7 +6669,7 @@
         <v>7</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>4</v>
@@ -6674,42 +6680,42 @@
         <v>7</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23"/>
+      <c r="O45" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="C46" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
       <c r="G46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>6</v>
@@ -6736,16 +6742,16 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>4</v>
@@ -6756,29 +6762,29 @@
         <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="23"/>
+      <c r="K48" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="20"/>
+      <c r="M48" s="21"/>
       <c r="O48" s="4"/>
       <c r="P48" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6786,14 +6792,14 @@
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>12</v>
@@ -6809,7 +6815,7 @@
       </c>
       <c r="O49" s="7"/>
       <c r="P49" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q49" s="9" t="s">
         <v>5</v>
@@ -6828,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>4</v>
@@ -6842,25 +6848,25 @@
       <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
+      <c r="G51" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="24"/>
       <c r="K51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O51" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="23"/>
+      <c r="O51" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C52" s="4"/>
@@ -6883,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>4</v>
@@ -6901,16 +6907,16 @@
     <row r="53" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C53" s="7"/>
       <c r="D53" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>4</v>
@@ -6919,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>4</v>
@@ -6928,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>4</v>
@@ -6939,32 +6945,32 @@
         <v>7</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M54" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
+      <c r="C55" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
         <v>14</v>
@@ -6974,14 +6980,14 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O55" s="7"/>
       <c r="P55" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q55" s="9" t="s">
         <v>12</v>
@@ -7010,14 +7016,14 @@
         <v>3</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>12</v>
@@ -7026,25 +7032,25 @@
     <row r="58" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C58" s="7"/>
       <c r="D58" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G59" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="20"/>
+      <c r="G59" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C60" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="C60" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
       <c r="G60" s="12" t="s">
         <v>2</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>4</v>
@@ -7080,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>4</v>
@@ -7096,14 +7102,14 @@
     <row r="63" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C63" s="7"/>
       <c r="D63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>11</v>
@@ -7112,42 +7118,42 @@
     <row r="64" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G64" s="7"/>
       <c r="H64" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="K48:M48"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="G30:I30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="O45:Q45"/>
   </mergeCells>
